--- a/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_region_name.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_region_name.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Archaeology/Greek and Egyptian</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="B2">
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -454,19 +454,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Archaeology/Medieval</t>
+          <t>Archaeology-Greek_and_Egyptian</t>
         </is>
       </c>
       <c r="B3">
@@ -488,43 +488,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Archaeology/Mixed</t>
+          <t>Archaeology-Medieval</t>
         </is>
       </c>
       <c r="B4">
@@ -534,43 +534,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Archaeology/Other</t>
+          <t>Archaeology-Mixed</t>
         </is>
       </c>
       <c r="B5">
@@ -580,62 +580,62 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Archaeology/Prehistory</t>
+          <t>Archaeology-Other</t>
         </is>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -647,59 +647,59 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Archaeology/Roman</t>
+          <t>Archaeology-Prehistory</t>
         </is>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -708,99 +708,99 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Arts/Ceramics</t>
+          <t>Archaeology-Roman</t>
         </is>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Arts/Costume and textiles</t>
+          <t>Arts-Ceramics</t>
         </is>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Arts/Crafts</t>
+          <t>Arts-Costume_and_textiles</t>
         </is>
       </c>
       <c r="B10">
@@ -810,43 +810,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Arts/Design</t>
+          <t>Arts-Crafts</t>
         </is>
       </c>
       <c r="B11">
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -892,99 +892,99 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Arts/Fine and decorative arts</t>
+          <t>Arts-Design</t>
         </is>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Arts/Glass</t>
+          <t>Arts-Fine_and_decorative_arts</t>
         </is>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Arts/Literature</t>
+          <t>Arts-Glass</t>
         </is>
       </c>
       <c r="B14">
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,25 +1012,25 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/Arts/Music</t>
+          <t>Arts-Literature</t>
         </is>
       </c>
       <c r="B15">
@@ -1040,59 +1040,59 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/Arts/Other</t>
+          <t>Arts-Music</t>
         </is>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1101,35 +1101,35 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/Arts/Photography</t>
+          <t>Arts-Other</t>
         </is>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1138,37 +1138,37 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/Belief and identity/Church treasuries</t>
+          <t>Arts-Photography</t>
         </is>
       </c>
       <c r="B18">
@@ -1184,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,41 +1214,41 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/Belief and identity/Ethnic group</t>
+          <t>Belief_and_identity</t>
         </is>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/Belief and identity/Freemasons</t>
+          <t>Belief_and_identity-Church_treasuries</t>
         </is>
       </c>
       <c r="B20">
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1306,29 +1306,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/Belief and identity/Other</t>
+          <t>Belief_and_identity-Ethnic_group</t>
         </is>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religion</t>
+          <t>Belief_and_identity-Freemasons</t>
         </is>
       </c>
       <c r="B22">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1374,344 +1374,344 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religious buildings</t>
+          <t>Belief_and_identity-Other</t>
         </is>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/Buildings/Civic</t>
+          <t>Belief_and_identity-Religion</t>
         </is>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Large houses</t>
+          <t>Belief_and_identity-Religious_buildings</t>
         </is>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
         <v>6</v>
       </c>
-      <c r="J25">
-        <v>39</v>
-      </c>
-      <c r="K25">
-        <v>56</v>
-      </c>
-      <c r="L25">
-        <v>79</v>
-      </c>
       <c r="M25">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Medium houses</t>
+          <t>Buildings-Civic</t>
         </is>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Small houses</t>
+          <t>Buildings-Houses-Large_houses</t>
         </is>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
       <c r="J27">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/Buildings/Other</t>
+          <t>Buildings-Houses-Medium_houses</t>
         </is>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
         <v>7</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/Buildings/Palace</t>
+          <t>Buildings-Houses-Small_houses</t>
         </is>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1720,99 +1720,99 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/Buildings/Penal</t>
+          <t>Buildings-Other</t>
         </is>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/Buildings/School</t>
+          <t>Buildings-Palace</t>
         </is>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/Buildings/Shops</t>
+          <t>Buildings-Penal</t>
         </is>
       </c>
       <c r="B32">
@@ -1822,71 +1822,71 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/Communications/Other</t>
+          <t>Buildings-School</t>
         </is>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/Communications/Post</t>
+          <t>Buildings-Shops</t>
         </is>
       </c>
       <c r="B34">
@@ -1914,25 +1914,25 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/Communications/Radio</t>
+          <t>Communications</t>
         </is>
       </c>
       <c r="B35">
@@ -1960,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1978,16 +1978,16 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/Food and drink</t>
+          <t>Communications-Other</t>
         </is>
       </c>
       <c r="B36">
@@ -2006,34 +2006,34 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2042,7 +2042,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Clocks and watches</t>
+          <t>Communications-Post</t>
         </is>
       </c>
       <c r="B37">
@@ -2058,37 +2058,37 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Industrial life</t>
+          <t>Communications-Radio</t>
         </is>
       </c>
       <c r="B38">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2107,34 +2107,34 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Metals</t>
+          <t>Food_and_drink</t>
         </is>
       </c>
       <c r="B39">
@@ -2144,43 +2144,43 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mining and quarrying</t>
+          <t>Industry_and_manufacture-Clocks_and_watches</t>
         </is>
       </c>
       <c r="B40">
@@ -2190,43 +2190,43 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mixed</t>
+          <t>Industry_and_manufacture-Industrial_life</t>
         </is>
       </c>
       <c r="B41">
@@ -2239,19 +2239,19 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2272,7 +2272,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Other</t>
+          <t>Industry_and_manufacture-Metals</t>
         </is>
       </c>
       <c r="B42">
@@ -2285,31 +2285,31 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>2</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -2318,7 +2318,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Potteries</t>
+          <t>Industry_and_manufacture-Mining_and_quarrying</t>
         </is>
       </c>
       <c r="B43">
@@ -2328,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2343,28 +2343,28 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Print</t>
+          <t>Industry_and_manufacture-Mixed</t>
         </is>
       </c>
       <c r="B44">
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2392,25 +2392,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Steam and engines</t>
+          <t>Industry_and_manufacture-Other</t>
         </is>
       </c>
       <c r="B45">
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2441,87 +2441,87 @@
         <v>4</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Textiles</t>
+          <t>Industry_and_manufacture-Potteries</t>
         </is>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>15</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Cricket</t>
+          <t>Industry_and_manufacture-Print</t>
         </is>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2536,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Fairgrounds and amusements</t>
+          <t>Industry_and_manufacture-Steam_and_engines</t>
         </is>
       </c>
       <c r="B48">
@@ -2561,86 +2561,86 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Film Cinema and TV</t>
+          <t>Industry_and_manufacture-Textiles</t>
         </is>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>4</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Other</t>
+          <t>Leisure_and_sport-Cricket</t>
         </is>
       </c>
       <c r="B50">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2659,22 +2659,22 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -2686,17 +2686,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Rugby and football</t>
+          <t>Leisure_and_sport-Fairgrounds_and_amusements</t>
         </is>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2705,34 +2705,34 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Toys and models</t>
+          <t>Leisure_and_sport-Film_Cinema_and_TV</t>
         </is>
       </c>
       <c r="B52">
@@ -2742,102 +2742,102 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/Local Histories</t>
+          <t>Leisure_and_sport-Other</t>
         </is>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="L53">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>/Medicine and health/Hospital</t>
+          <t>Leisure_and_sport-Rugby_and_football</t>
         </is>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2846,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2870,7 +2870,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/Medicine and health/Other</t>
+          <t>Leisure_and_sport-Toys_and_models</t>
         </is>
       </c>
       <c r="B55">
@@ -2880,111 +2880,111 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/Medicine and health/Professional association</t>
+          <t>Local_Histories</t>
         </is>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>/Mixed/Bygones</t>
+          <t>Medicine_and_health-Hospital</t>
         </is>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3008,121 +3008,121 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/Mixed/Encyclopaedic</t>
+          <t>Medicine_and_health-Other</t>
         </is>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/Mixed/Other</t>
+          <t>Medicine_and_health-Professional_association</t>
         </is>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/Natural world/Dinosaurs</t>
+          <t>Mixed-Bygones</t>
         </is>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3131,114 +3131,114 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/Natural world/Fossils</t>
+          <t>Mixed-Encyclopaedic</t>
         </is>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/Natural world/Geology</t>
+          <t>Mixed-Other</t>
         </is>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/Natural world/Herbaria and gardening</t>
+          <t>Natural_world</t>
         </is>
       </c>
       <c r="B63">
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3284,7 +3284,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/Natural world/Mixed</t>
+          <t>Natural_world-Dinosaurs</t>
         </is>
       </c>
       <c r="B64">
@@ -3294,43 +3294,43 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/Natural world/Other</t>
+          <t>Natural_world-Fossils</t>
         </is>
       </c>
       <c r="B65">
@@ -3343,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -3376,7 +3376,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>/Natural world/Zoology</t>
+          <t>Natural_world-Geology</t>
         </is>
       </c>
       <c r="B66">
@@ -3386,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3407,68 +3407,68 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/Other</t>
+          <t>Natural_world-Herbaria_and_gardening</t>
         </is>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/Personality/Art</t>
+          <t>Natural_world-Mixed</t>
         </is>
       </c>
       <c r="B68">
@@ -3481,40 +3481,40 @@
         <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
         <v>6</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="L68">
         <v>2</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/Personality/Explorer</t>
+          <t>Natural_world-Other</t>
         </is>
       </c>
       <c r="B69">
@@ -3527,224 +3527,224 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/Personality/Literary</t>
+          <t>Natural_world-Zoology</t>
         </is>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/Personality/Music</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/Personality/Other</t>
+          <t>Personality-Art</t>
         </is>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/Personality/Political</t>
+          <t>Personality-Explorer</t>
         </is>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/Personality/Religious</t>
+          <t>Personality-Literary</t>
         </is>
       </c>
       <c r="B74">
@@ -3754,43 +3754,43 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/Personality/Scientific</t>
+          <t>Personality-Music</t>
         </is>
       </c>
       <c r="B75">
@@ -3800,31 +3800,31 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -3836,7 +3836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/Rural Industry/Farming</t>
+          <t>Personality-Other</t>
         </is>
       </c>
       <c r="B76">
@@ -3852,108 +3852,108 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/Rural Industry/Forges</t>
+          <t>Personality-Political</t>
         </is>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77">
         <v>2</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/Rural Industry/Other</t>
+          <t>Personality-Religious</t>
         </is>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3962,111 +3962,111 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/Rural Industry/Rural life</t>
+          <t>Personality-Scientific</t>
         </is>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/Rural Industry/Textiles</t>
+          <t>Rural_Industry-Farming</t>
         </is>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/Rural Industry/Watermills</t>
+          <t>Rural_Industry-Forges</t>
         </is>
       </c>
       <c r="B81">
@@ -4079,40 +4079,40 @@
         <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/Rural Industry/Windmills</t>
+          <t>Rural_Industry-Other</t>
         </is>
       </c>
       <c r="B82">
@@ -4122,62 +4122,62 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/Science and technology/Computing and gaming</t>
+          <t>Rural_Industry-Rural_life</t>
         </is>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4204,7 +4204,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/Science and technology/Other</t>
+          <t>Rural_Industry-Textiles</t>
         </is>
       </c>
       <c r="B84">
@@ -4214,19 +4214,19 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4235,13 +4235,13 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4250,53 +4250,53 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Boats and ships</t>
+          <t>Rural_Industry-Watermills</t>
         </is>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <v>5</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>6</v>
-      </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Fishing</t>
+          <t>Rural_Industry-Windmills</t>
         </is>
       </c>
       <c r="B86">
@@ -4306,43 +4306,43 @@
         <v>0</v>
       </c>
       <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
         <v>6</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
       <c r="G86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Lighthouses</t>
+          <t>Science_and_technology-Computing_and_gaming</t>
         </is>
       </c>
       <c r="B87">
@@ -4352,43 +4352,43 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Mixed</t>
+          <t>Science_and_technology-Other</t>
         </is>
       </c>
       <c r="B88">
@@ -4398,89 +4398,89 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Other</t>
+          <t>Sea_and_seafaring-Boats_and_ships</t>
         </is>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/Services/Fire</t>
+          <t>Sea_and_seafaring-Fishing</t>
         </is>
       </c>
       <c r="B90">
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4499,44 +4499,44 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/Services/Other</t>
+          <t>Sea_and_seafaring-Lighthouses</t>
         </is>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4551,74 +4551,74 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/Services/Police</t>
+          <t>Sea_and_seafaring-Mixed</t>
         </is>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>3</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/Services/RNLI</t>
+          <t>Sea_and_seafaring-Other</t>
         </is>
       </c>
       <c r="B93">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -4664,14 +4664,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/Transport/Aviation</t>
+          <t>Services-Fire</t>
         </is>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>4</v>
@@ -4692,25 +4692,25 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/Transport/Bicycles</t>
+          <t>Services-Other</t>
         </is>
       </c>
       <c r="B95">
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -4756,99 +4756,99 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/Transport/Buses and trams</t>
+          <t>Services-Police</t>
         </is>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/Transport/Canals</t>
+          <t>Services-RNLI</t>
         </is>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/Transport/Cars and motorbikes</t>
+          <t>Transport-Aviation</t>
         </is>
       </c>
       <c r="B98">
@@ -4858,43 +4858,43 @@
         <v>1</v>
       </c>
       <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
         <v>6</v>
       </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98">
-        <v>5</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <v>4</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>4</v>
-      </c>
-      <c r="K98">
-        <v>12</v>
-      </c>
       <c r="L98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/Transport/Mixed</t>
+          <t>Transport-Bicycles</t>
         </is>
       </c>
       <c r="B99">
@@ -4904,43 +4904,43 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/Transport/Other</t>
+          <t>Transport-Buses_and_trams</t>
         </is>
       </c>
       <c r="B100">
@@ -4950,89 +4950,89 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/Transport/Trains and railways</t>
+          <t>Transport-Canals</t>
         </is>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G101">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K101">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>/Utilities/Gas and electricity</t>
+          <t>Transport-Cars_and_motorbikes</t>
         </is>
       </c>
       <c r="B102">
@@ -5042,89 +5042,89 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/Utilities/Water and waste</t>
+          <t>Transport-Mixed</t>
         </is>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>4</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>5</v>
       </c>
       <c r="M103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>/War and conflict/Airforce</t>
+          <t>Transport-Other</t>
         </is>
       </c>
       <c r="B104">
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5152,209 +5152,209 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L104">
         <v>2</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>/War and conflict/Bunker</t>
+          <t>Transport-Trains_and_railways</t>
         </is>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>/War and conflict/Castles and forts</t>
+          <t>Utilities-Gas_and_electricity</t>
         </is>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>/War and conflict/Event or site</t>
+          <t>Utilities-Water_and_waste</t>
         </is>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
         <v>5</v>
       </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107">
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
         <v>5</v>
       </c>
-      <c r="G107">
-        <v>2</v>
-      </c>
-      <c r="H107">
-        <v>3</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107">
-        <v>6</v>
-      </c>
       <c r="L107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>/War and conflict/Military</t>
+          <t>War_and_conflict-Airforce</t>
         </is>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>/War and conflict/Navy</t>
+          <t>War_and_conflict-Bunker</t>
         </is>
       </c>
       <c r="B109">
@@ -5373,120 +5373,304 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>/War and conflict/Other</t>
+          <t>War_and_conflict-Castles_and_forts</t>
         </is>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>/War and conflict/Regiment</t>
+          <t>War_and_conflict-Event_or_site</t>
         </is>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Military</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Navy</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Other</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Regiment</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
         <v>9</v>
       </c>
-      <c r="E111">
-        <v>6</v>
-      </c>
-      <c r="F111">
+      <c r="H115">
+        <v>11</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
         <v>10</v>
       </c>
-      <c r="G111">
-        <v>7</v>
-      </c>
-      <c r="H111">
+      <c r="K115">
+        <v>31</v>
+      </c>
+      <c r="L115">
+        <v>11</v>
+      </c>
+      <c r="M115">
         <v>10</v>
       </c>
-      <c r="I111">
-        <v>5</v>
-      </c>
-      <c r="J111">
-        <v>11</v>
-      </c>
-      <c r="K111">
-        <v>32</v>
-      </c>
-      <c r="L111">
-        <v>11</v>
-      </c>
-      <c r="M111">
+      <c r="N115">
         <v>10</v>
-      </c>
-      <c r="N111">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
